--- a/관리산출물/관리산출물PMP PSP/PSP/박영우/신수동크러셔_psp_20151154_박영우.xlsx
+++ b/관리산출물/관리산출물PMP PSP/PSP/박영우/신수동크러셔_psp_20151154_박영우.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ywooo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGTSeo\Documents\GitHub\sinsudong-crusher-home\관리산출물\관리산출물PMP PSP\PSP\박영우\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66010190-5EE7-4D57-9A55-CE1F85E754CD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D732CC4-77F7-4FB3-8EF8-C2FC4A524C1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="박영우" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>PSP: Personal Software Process</t>
   </si>
@@ -103,18 +103,34 @@
   </si>
   <si>
     <t>SAD 스켈레톤 코드 작성 및 선행개발</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.19</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발 로드맵 및 업무분담 회의</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발회의</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="am/pm\ h:mm:ss"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -166,6 +182,12 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -208,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -250,12 +272,45 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{E2A090B0-826F-4C66-8910-774B98998B7E}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -471,7 +526,7 @@
   <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -593,7 +648,7 @@
       </c>
       <c r="H7" s="9">
         <f>SUM(E6:E123)</f>
-        <v>645.00000000000034</v>
+        <v>920.00000000000034</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -715,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="14">
-        <f t="shared" ref="E13:E14" si="2">(C13-B13)*1440-D13</f>
+        <f t="shared" ref="E13" si="2">(C13-B13)*1440-D13</f>
         <v>180</v>
       </c>
       <c r="F13" s="7" t="s">
@@ -736,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="14">
-        <f t="shared" ref="E14:E18" si="3">(C14-B14)*1440-D14</f>
+        <f t="shared" ref="E14" si="3">(C14-B14)*1440-D14</f>
         <v>180</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -760,23 +815,49 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="7"/>
+      <c r="A17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="19">
+        <v>1330</v>
+      </c>
+      <c r="C17" s="19">
+        <v>1445</v>
+      </c>
+      <c r="D17" s="20">
+        <v>10</v>
+      </c>
+      <c r="E17" s="20">
+        <v>95</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="7"/>
+      <c r="A18" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="19">
+        <v>1800</v>
+      </c>
+      <c r="C18" s="19">
+        <v>2200</v>
+      </c>
+      <c r="D18" s="20">
+        <v>60</v>
+      </c>
+      <c r="E18" s="20">
+        <v>180</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="A19" s="7">
+        <v>2</v>
+      </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="13">
